--- a/OPCOST/HarvestSystems_Size_breakdown.xlsx
+++ b/OPCOST/HarvestSystems_Size_breakdown.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsfried\Box\FIA BioSum Development Team External\BioSumBox\Development\UCB_OpCost_Collab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fia_Biosum_Scripts\OPCOST\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9EA196FA-CC5C-4E02-B82F-EE54CAD346D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="20880" windowHeight="8592"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="20880" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="53">
   <si>
     <t>HM#</t>
   </si>
@@ -75,9 +76,6 @@
   </si>
   <si>
     <t>Helicopter CTL</t>
-  </si>
-  <si>
-    <t>Shovel Logging</t>
   </si>
   <si>
     <t>Tethered Harvester</t>
@@ -191,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -201,18 +199,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -288,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -305,9 +297,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -315,9 +304,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -599,27 +585,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="38.5546875" customWidth="1"/>
-    <col min="9" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" customWidth="1"/>
+    <col min="9" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +622,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -647,14 +633,14 @@
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -665,16 +651,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -686,19 +672,19 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="5"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -710,21 +696,21 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -736,21 +722,21 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -761,16 +747,16 @@
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -782,19 +768,19 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -806,19 +792,19 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -830,21 +816,21 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -855,16 +841,16 @@
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -876,19 +862,19 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="5"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -900,21 +886,21 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -926,21 +912,21 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>4</v>
       </c>
@@ -951,16 +937,16 @@
         <v>14</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>4</v>
       </c>
@@ -972,19 +958,19 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>4</v>
       </c>
@@ -996,23 +982,23 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -1024,23 +1010,23 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>5</v>
       </c>
@@ -1051,16 +1037,16 @@
         <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>5</v>
       </c>
@@ -1072,21 +1058,21 @@
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="I19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>5</v>
       </c>
@@ -1098,21 +1084,21 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>5</v>
       </c>
@@ -1124,23 +1110,23 @@
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="H21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>6</v>
       </c>
@@ -1151,16 +1137,16 @@
         <v>16</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>6</v>
       </c>
@@ -1172,21 +1158,21 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>6</v>
       </c>
@@ -1198,21 +1184,21 @@
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>6</v>
       </c>
@@ -1224,23 +1210,23 @@
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>7</v>
       </c>
@@ -1248,19 +1234,19 @@
         <v>3</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>7</v>
       </c>
@@ -1268,25 +1254,25 @@
         <v>9</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>7</v>
       </c>
@@ -1294,27 +1280,27 @@
         <v>10</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>7</v>
       </c>
@@ -1322,707 +1308,430 @@
         <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="10"/>
-    </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="10"/>
-    </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="9"/>
-      <c r="K34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="H36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J36" s="9"/>
-      <c r="K36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="I39" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J39" s="9"/>
-    </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J40" s="9"/>
-    </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="H41" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J41" s="9"/>
-    </row>
-    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="9"/>
-    </row>
-    <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J42" s="8"/>
+      <c r="K42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H43" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J43" s="9"/>
-    </row>
-    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I43" s="5"/>
+      <c r="J43" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F44" s="5"/>
-      <c r="G44" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="G44" s="5"/>
       <c r="H44" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J44" s="9"/>
-    </row>
-    <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J45" s="9"/>
-    </row>
-    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3">
-        <v>52</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="9"/>
-    </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
-        <v>52</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J47" s="9"/>
-    </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
-        <v>52</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J48" s="9"/>
-    </row>
-    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="3">
-        <v>52</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J49" s="9"/>
-    </row>
-    <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3">
-        <v>53</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="9"/>
-    </row>
-    <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
-        <v>53</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J51" s="9"/>
-    </row>
-    <row r="52" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="3">
-        <v>53</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J52" s="9"/>
-    </row>
-    <row r="53" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="3">
-        <v>53</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J53" s="9"/>
-    </row>
-    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="3">
-        <v>54</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="9"/>
-      <c r="K54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="3">
-        <v>54</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I55" s="5"/>
-      <c r="J55" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K55" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="3">
-        <v>54</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J56" s="9"/>
-      <c r="K56" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3">
-        <v>54</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I57" s="5"/>
-      <c r="J57" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OPCOST/HarvestSystems_Size_breakdown.xlsx
+++ b/OPCOST/HarvestSystems_Size_breakdown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fia_Biosum_Scripts\OPCOST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9EA196FA-CC5C-4E02-B82F-EE54CAD346D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{267AB11C-46A2-414D-8528-E4EE0EB9994B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="0" windowWidth="20880" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,12 +199,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -280,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -304,6 +316,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -589,10 +613,10 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD33"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,8 +624,9 @@
     <col min="3" max="3" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" customWidth="1"/>
-    <col min="9" max="10" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="49" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
     <col min="11" max="11" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -641,23 +666,23 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -675,10 +700,10 @@
         <v>41</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I3" s="5"/>
@@ -699,10 +724,10 @@
         <v>41</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -725,10 +750,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -752,7 +777,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="5"/>
       <c r="J6" s="8"/>
     </row>
@@ -771,10 +796,10 @@
         <v>43</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="5"/>
@@ -795,10 +820,10 @@
         <v>43</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="5"/>
@@ -821,10 +846,10 @@
       <c r="F9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I9" s="5"/>
@@ -846,7 +871,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="5"/>
       <c r="J10" s="8"/>
     </row>
@@ -865,10 +890,10 @@
         <v>22</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="5"/>
@@ -889,10 +914,10 @@
         <v>23</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="5" t="s">
@@ -915,10 +940,10 @@
         <v>24</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -942,7 +967,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
@@ -961,10 +986,10 @@
         <v>22</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="5"/>
@@ -987,10 +1012,10 @@
       <c r="F16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -1015,10 +1040,10 @@
       <c r="F17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="5" t="s">
@@ -1042,7 +1067,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
@@ -1061,10 +1086,10 @@
         <v>43</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="5" t="s">
@@ -1087,10 +1112,10 @@
         <v>43</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I20" s="5" t="s">
@@ -1115,10 +1140,10 @@
       <c r="F21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="5" t="s">
@@ -1142,7 +1167,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="5"/>
       <c r="J22" s="8"/>
     </row>
@@ -1161,10 +1186,10 @@
         <v>43</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I23" s="5" t="s">
@@ -1187,10 +1212,10 @@
         <v>43</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="5" t="s">
@@ -1215,10 +1240,10 @@
       <c r="F25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I25" s="5" t="s">
@@ -1242,7 +1267,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="5"/>
       <c r="J26" s="8"/>
     </row>
@@ -1261,10 +1286,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I27" s="5" t="s">
@@ -1289,10 +1314,10 @@
       <c r="F28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I28" s="5" t="s">
@@ -1317,10 +1342,10 @@
       <c r="F29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I29" s="5" t="s">
@@ -1344,7 +1369,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="H30" s="12"/>
       <c r="I30" s="5"/>
       <c r="J30" s="8"/>
     </row>
@@ -1363,10 +1388,10 @@
         <v>22</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I31" s="5" t="s">
@@ -1391,10 +1416,10 @@
       <c r="F32" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I32" s="5" t="s">
@@ -1419,10 +1444,10 @@
       <c r="F33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="5" t="s">
@@ -1446,7 +1471,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="H34" s="12"/>
       <c r="I34" s="5"/>
       <c r="J34" s="8"/>
     </row>
@@ -1465,10 +1490,10 @@
         <v>22</v>
       </c>
       <c r="F35" s="5"/>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I35" s="5" t="s">
@@ -1491,10 +1516,10 @@
         <v>23</v>
       </c>
       <c r="F36" s="5"/>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I36" s="5" t="s">
@@ -1517,10 +1542,10 @@
         <v>24</v>
       </c>
       <c r="F37" s="5"/>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I37" s="5" t="s">
@@ -1544,7 +1569,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="H38" s="12"/>
       <c r="I38" s="5"/>
       <c r="J38" s="8"/>
     </row>
@@ -1563,10 +1588,10 @@
         <v>22</v>
       </c>
       <c r="F39" s="5"/>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I39" s="5" t="s">
@@ -1591,10 +1616,10 @@
       <c r="F40" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I40" s="5" t="s">
@@ -1619,10 +1644,10 @@
       <c r="F41" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I41" s="5" t="s">
@@ -1646,7 +1671,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="H42" s="12"/>
       <c r="I42" s="5"/>
       <c r="J42" s="8"/>
       <c r="K42" t="s">
@@ -1671,7 +1696,7 @@
       <c r="G43" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I43" s="5"/>
@@ -1698,7 +1723,7 @@
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I44" s="5" t="s">
@@ -1727,7 +1752,7 @@
         <v>26</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I45" s="5"/>
